--- a/GATEWAY/A1#111HTINFORMATICAXX/HTINFORMATICA SRL/HTSANg/3.1.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111HTINFORMATICAXX/HTINFORMATICA SRL/HTSANg/3.1.0/report-checklist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\_FSE2.0\VALIDAZIONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\_FSE2.0\VALIDAZIONE\A1#111HTINFORMATICAXX\HTINFORMATICA SRL\HTSANg\3.1.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F4BB0F3-5518-4474-AC83-F461EBA51603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182AE2CE-C483-4C30-9279-31B349C15BB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8364" yWindow="4428" windowWidth="32856" windowHeight="20016" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25416" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -2170,11 +2170,17 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2198,14 +2204,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4667,14 +4667,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:T722"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I80" sqref="I80"/>
+      <selection pane="bottomRight" activeCell="L31" sqref="L31:P34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4712,12 +4711,12 @@
       <c r="T1" s="15"/>
     </row>
     <row r="2" spans="1:20" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="41"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="43"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -4735,14 +4734,14 @@
       <c r="T2" s="15"/>
     </row>
     <row r="3" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="49" t="s">
+      <c r="B3" s="46"/>
+      <c r="C3" s="51" t="s">
         <v>305</v>
       </c>
-      <c r="D3" s="41"/>
+      <c r="D3" s="43"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
@@ -4760,12 +4759,12 @@
       <c r="T3" s="15"/>
     </row>
     <row r="4" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="45"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="49" t="s">
+      <c r="A4" s="47"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="51" t="s">
         <v>306</v>
       </c>
-      <c r="D4" s="41"/>
+      <c r="D4" s="43"/>
       <c r="E4" s="4"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
@@ -4784,12 +4783,12 @@
       <c r="T4" s="15"/>
     </row>
     <row r="5" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="47"/>
-      <c r="B5" s="48"/>
-      <c r="C5" s="49" t="s">
+      <c r="A5" s="49"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="51" t="s">
         <v>307</v>
       </c>
-      <c r="D5" s="41"/>
+      <c r="D5" s="43"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
@@ -4807,8 +4806,8 @@
       <c r="T5" s="15"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="38"/>
-      <c r="B6" s="39"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="41"/>
       <c r="C6" s="16"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
@@ -4925,7 +4924,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="144" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" ht="144" x14ac:dyDescent="0.3">
       <c r="A10" s="20">
         <v>1</v>
       </c>
@@ -4944,7 +4943,7 @@
       <c r="F10" s="23">
         <v>45258</v>
       </c>
-      <c r="G10" s="51">
+      <c r="G10" s="38">
         <v>0.61805555555555558</v>
       </c>
       <c r="H10" s="24" t="s">
@@ -4969,7 +4968,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="144" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" ht="144" x14ac:dyDescent="0.3">
       <c r="A11" s="20">
         <v>2</v>
       </c>
@@ -4988,7 +4987,7 @@
       <c r="F11" s="23">
         <v>45258</v>
       </c>
-      <c r="G11" s="51">
+      <c r="G11" s="38">
         <v>0.61805555555555558</v>
       </c>
       <c r="H11" s="24" t="s">
@@ -5013,7 +5012,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="144" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" ht="144" x14ac:dyDescent="0.3">
       <c r="A12" s="20">
         <v>3</v>
       </c>
@@ -5032,7 +5031,7 @@
       <c r="F12" s="23">
         <v>45258</v>
       </c>
-      <c r="G12" s="51">
+      <c r="G12" s="38">
         <v>0.61875000000000002</v>
       </c>
       <c r="H12" s="24" t="s">
@@ -5057,7 +5056,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="144" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" ht="144" x14ac:dyDescent="0.3">
       <c r="A13" s="20">
         <v>4</v>
       </c>
@@ -5076,7 +5075,7 @@
       <c r="F13" s="23">
         <v>45258</v>
       </c>
-      <c r="G13" s="51">
+      <c r="G13" s="38">
         <v>0.61875000000000002</v>
       </c>
       <c r="H13" s="24" t="s">
@@ -5101,7 +5100,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="144" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" ht="144" x14ac:dyDescent="0.3">
       <c r="A14" s="20">
         <v>5</v>
       </c>
@@ -5120,7 +5119,7 @@
       <c r="F14" s="23">
         <v>45258</v>
       </c>
-      <c r="G14" s="51">
+      <c r="G14" s="38">
         <v>0.61875000000000002</v>
       </c>
       <c r="H14" s="24" t="s">
@@ -5145,7 +5144,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A15" s="20">
         <v>6</v>
       </c>
@@ -5161,10 +5160,10 @@
       <c r="E15" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="F15" s="50">
+      <c r="F15" s="37">
         <v>45258</v>
       </c>
-      <c r="G15" s="51">
+      <c r="G15" s="38">
         <v>0.59791666666666665</v>
       </c>
       <c r="H15" s="24" t="s">
@@ -5189,7 +5188,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A16" s="20">
         <v>7</v>
       </c>
@@ -5205,13 +5204,13 @@
       <c r="E16" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="F16" s="50">
+      <c r="F16" s="37">
         <v>45258</v>
       </c>
-      <c r="G16" s="51">
+      <c r="G16" s="38">
         <v>0.59791666666666665</v>
       </c>
-      <c r="H16" s="52" t="s">
+      <c r="H16" s="39" t="s">
         <v>313</v>
       </c>
       <c r="I16" s="24" t="s">
@@ -5233,7 +5232,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A17" s="20">
         <v>8</v>
       </c>
@@ -5249,10 +5248,10 @@
       <c r="E17" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="F17" s="50">
+      <c r="F17" s="37">
         <v>45258</v>
       </c>
-      <c r="G17" s="51">
+      <c r="G17" s="38">
         <v>0.61388888888888882</v>
       </c>
       <c r="H17" s="24" t="s">
@@ -5277,7 +5276,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A18" s="20">
         <v>9</v>
       </c>
@@ -5293,10 +5292,10 @@
       <c r="E18" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="F18" s="50">
+      <c r="F18" s="37">
         <v>45258</v>
       </c>
-      <c r="G18" s="51">
+      <c r="G18" s="38">
         <v>0.61388888888888882</v>
       </c>
       <c r="H18" s="24" t="s">
@@ -5321,7 +5320,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A19" s="20">
         <v>11</v>
       </c>
@@ -5340,7 +5339,7 @@
       <c r="F19" s="23">
         <v>45258</v>
       </c>
-      <c r="G19" s="51">
+      <c r="G19" s="38">
         <v>0.61597222222222225</v>
       </c>
       <c r="H19" s="24" t="s">
@@ -5365,7 +5364,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A20" s="20">
         <v>12</v>
       </c>
@@ -5384,7 +5383,7 @@
       <c r="F20" s="23">
         <v>45258</v>
       </c>
-      <c r="G20" s="51">
+      <c r="G20" s="38">
         <v>0.61597222222222225</v>
       </c>
       <c r="H20" s="24" t="s">
@@ -5409,7 +5408,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A21" s="20">
         <v>13</v>
       </c>
@@ -5428,7 +5427,7 @@
       <c r="F21" s="23">
         <v>45258</v>
       </c>
-      <c r="G21" s="51">
+      <c r="G21" s="38">
         <v>0.61597222222222225</v>
       </c>
       <c r="H21" s="24" t="s">
@@ -5453,7 +5452,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A22" s="20">
         <v>14</v>
       </c>
@@ -5472,7 +5471,7 @@
       <c r="F22" s="23">
         <v>45258</v>
       </c>
-      <c r="G22" s="51">
+      <c r="G22" s="38">
         <v>0.6166666666666667</v>
       </c>
       <c r="H22" s="24" t="s">
@@ -5497,7 +5496,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A23" s="20">
         <v>28</v>
       </c>
@@ -5535,7 +5534,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A24" s="20">
         <v>29</v>
       </c>
@@ -5573,7 +5572,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A25" s="20">
         <v>31</v>
       </c>
@@ -5611,7 +5610,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A26" s="20">
         <v>32</v>
       </c>
@@ -5649,7 +5648,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="144" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" ht="144" x14ac:dyDescent="0.3">
       <c r="A27" s="20">
         <v>36</v>
       </c>
@@ -5669,10 +5668,10 @@
       <c r="G27" s="24"/>
       <c r="H27" s="24"/>
       <c r="I27" s="24"/>
-      <c r="J27" s="36" t="s">
+      <c r="J27" s="52" t="s">
         <v>298</v>
       </c>
-      <c r="K27" s="36" t="s">
+      <c r="K27" s="52" t="s">
         <v>302</v>
       </c>
       <c r="L27" s="25"/>
@@ -5689,7 +5688,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="144" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" ht="144" x14ac:dyDescent="0.3">
       <c r="A28" s="20">
         <v>37</v>
       </c>
@@ -5709,10 +5708,10 @@
       <c r="G28" s="24"/>
       <c r="H28" s="24"/>
       <c r="I28" s="24"/>
-      <c r="J28" s="36" t="s">
+      <c r="J28" s="52" t="s">
         <v>298</v>
       </c>
-      <c r="K28" s="36" t="s">
+      <c r="K28" s="52" t="s">
         <v>299</v>
       </c>
       <c r="L28" s="25"/>
@@ -5727,7 +5726,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="144" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" ht="144" x14ac:dyDescent="0.3">
       <c r="A29" s="20">
         <v>39</v>
       </c>
@@ -5747,10 +5746,10 @@
       <c r="G29" s="24"/>
       <c r="H29" s="24"/>
       <c r="I29" s="24"/>
-      <c r="J29" s="36" t="s">
+      <c r="J29" s="52" t="s">
         <v>298</v>
       </c>
-      <c r="K29" s="36" t="s">
+      <c r="K29" s="52" t="s">
         <v>299</v>
       </c>
       <c r="L29" s="25"/>
@@ -5765,7 +5764,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="144" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" ht="144" x14ac:dyDescent="0.3">
       <c r="A30" s="20">
         <v>40</v>
       </c>
@@ -5785,10 +5784,10 @@
       <c r="G30" s="24"/>
       <c r="H30" s="24"/>
       <c r="I30" s="24"/>
-      <c r="J30" s="36" t="s">
+      <c r="J30" s="52" t="s">
         <v>298</v>
       </c>
-      <c r="K30" s="36" t="s">
+      <c r="K30" s="52" t="s">
         <v>299</v>
       </c>
       <c r="L30" s="25"/>
@@ -5803,7 +5802,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A31" s="20">
         <v>44</v>
       </c>
@@ -5825,19 +5824,19 @@
       <c r="I31" s="24"/>
       <c r="J31" s="25"/>
       <c r="K31" s="25"/>
-      <c r="L31" s="36" t="s">
+      <c r="L31" s="52" t="s">
         <v>298</v>
       </c>
-      <c r="M31" s="36" t="s">
+      <c r="M31" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="N31" s="36" t="s">
+      <c r="N31" s="52" t="s">
         <v>303</v>
       </c>
-      <c r="O31" s="36" t="s">
+      <c r="O31" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="P31" s="36" t="s">
+      <c r="P31" s="52" t="s">
         <v>304</v>
       </c>
       <c r="Q31" s="25"/>
@@ -5847,7 +5846,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A32" s="20">
         <v>45</v>
       </c>
@@ -5869,19 +5868,19 @@
       <c r="I32" s="24"/>
       <c r="J32" s="25"/>
       <c r="K32" s="25"/>
-      <c r="L32" s="36" t="s">
+      <c r="L32" s="52" t="s">
         <v>298</v>
       </c>
-      <c r="M32" s="36" t="s">
+      <c r="M32" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="N32" s="36" t="s">
+      <c r="N32" s="52" t="s">
         <v>303</v>
       </c>
-      <c r="O32" s="36" t="s">
+      <c r="O32" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="P32" s="36" t="s">
+      <c r="P32" s="52" t="s">
         <v>304</v>
       </c>
       <c r="Q32" s="25"/>
@@ -5891,7 +5890,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A33" s="20">
         <v>47</v>
       </c>
@@ -5913,19 +5912,19 @@
       <c r="I33" s="24"/>
       <c r="J33" s="25"/>
       <c r="K33" s="25"/>
-      <c r="L33" s="36" t="s">
+      <c r="L33" s="52" t="s">
         <v>298</v>
       </c>
-      <c r="M33" s="36" t="s">
+      <c r="M33" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="N33" s="36" t="s">
+      <c r="N33" s="52" t="s">
         <v>303</v>
       </c>
-      <c r="O33" s="36" t="s">
+      <c r="O33" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="P33" s="36" t="s">
+      <c r="P33" s="52" t="s">
         <v>304</v>
       </c>
       <c r="Q33" s="25"/>
@@ -5935,7 +5934,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A34" s="20">
         <v>48</v>
       </c>
@@ -5957,19 +5956,19 @@
       <c r="I34" s="24"/>
       <c r="J34" s="25"/>
       <c r="K34" s="25"/>
-      <c r="L34" s="36" t="s">
+      <c r="L34" s="52" t="s">
         <v>298</v>
       </c>
-      <c r="M34" s="36" t="s">
+      <c r="M34" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="N34" s="36" t="s">
+      <c r="N34" s="52" t="s">
         <v>303</v>
       </c>
-      <c r="O34" s="36" t="s">
+      <c r="O34" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="P34" s="36" t="s">
+      <c r="P34" s="52" t="s">
         <v>304</v>
       </c>
       <c r="Q34" s="25"/>
@@ -5979,7 +5978,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A35" s="20">
         <v>52</v>
       </c>
@@ -6017,7 +6016,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A36" s="20">
         <v>53</v>
       </c>
@@ -6055,7 +6054,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A37" s="20">
         <v>54</v>
       </c>
@@ -6093,7 +6092,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A38" s="20">
         <v>55</v>
       </c>
@@ -6131,7 +6130,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A39" s="20">
         <v>56</v>
       </c>
@@ -6169,7 +6168,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A40" s="20">
         <v>57</v>
       </c>
@@ -6207,7 +6206,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A41" s="20">
         <v>58</v>
       </c>
@@ -6245,7 +6244,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A42" s="20">
         <v>59</v>
       </c>
@@ -6283,7 +6282,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A43" s="20">
         <v>60</v>
       </c>
@@ -6321,7 +6320,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A44" s="20">
         <v>61</v>
       </c>
@@ -6359,7 +6358,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A45" s="20">
         <v>62</v>
       </c>
@@ -6397,7 +6396,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A46" s="20">
         <v>63</v>
       </c>
@@ -6435,7 +6434,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A47" s="20">
         <v>64</v>
       </c>
@@ -6473,7 +6472,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A48" s="20">
         <v>65</v>
       </c>
@@ -6511,7 +6510,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:20" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A49" s="20">
         <v>66</v>
       </c>
@@ -6549,7 +6548,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:20" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A50" s="20">
         <v>67</v>
       </c>
@@ -6587,7 +6586,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:20" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A51" s="20">
         <v>68</v>
       </c>
@@ -6625,7 +6624,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:20" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A52" s="20">
         <v>69</v>
       </c>
@@ -6663,7 +6662,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:20" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A53" s="20">
         <v>70</v>
       </c>
@@ -6701,7 +6700,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:20" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A54" s="20">
         <v>71</v>
       </c>
@@ -6739,7 +6738,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:20" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A55" s="20">
         <v>72</v>
       </c>
@@ -6777,7 +6776,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:20" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A56" s="20">
         <v>73</v>
       </c>
@@ -6815,7 +6814,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:20" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A57" s="20">
         <v>74</v>
       </c>
@@ -6853,7 +6852,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:20" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A58" s="20">
         <v>75</v>
       </c>
@@ -6891,7 +6890,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:20" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A59" s="20">
         <v>76</v>
       </c>
@@ -6929,7 +6928,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:20" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A60" s="20">
         <v>77</v>
       </c>
@@ -6967,7 +6966,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:20" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A61" s="20">
         <v>78</v>
       </c>
@@ -7005,7 +7004,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:20" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A62" s="20">
         <v>79</v>
       </c>
@@ -7043,7 +7042,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:20" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A63" s="20">
         <v>80</v>
       </c>
@@ -7081,7 +7080,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="64" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:20" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A64" s="20">
         <v>81</v>
       </c>
@@ -7119,7 +7118,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="65" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:20" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A65" s="20">
         <v>82</v>
       </c>
@@ -7157,7 +7156,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="66" spans="1:20" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:20" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A66" s="20">
         <v>83</v>
       </c>
@@ -7195,7 +7194,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="67" spans="1:20" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:20" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A67" s="20">
         <v>84</v>
       </c>
@@ -7233,7 +7232,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="68" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:20" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A68" s="20">
         <v>85</v>
       </c>
@@ -7271,7 +7270,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="69" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:20" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A69" s="20">
         <v>86</v>
       </c>
@@ -7309,7 +7308,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="70" spans="1:20" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:20" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A70" s="20">
         <v>87</v>
       </c>
@@ -7347,7 +7346,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="71" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:20" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A71" s="20">
         <v>88</v>
       </c>
@@ -7385,7 +7384,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="72" spans="1:20" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:20" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A72" s="20">
         <v>89</v>
       </c>
@@ -7423,7 +7422,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="73" spans="1:20" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:20" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A73" s="20">
         <v>90</v>
       </c>
@@ -7461,7 +7460,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="74" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:20" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A74" s="20">
         <v>91</v>
       </c>
@@ -7499,7 +7498,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="75" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:20" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A75" s="20">
         <v>92</v>
       </c>
@@ -7537,7 +7536,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="76" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:20" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A76" s="20">
         <v>93</v>
       </c>
@@ -7594,7 +7593,7 @@
       <c r="F77" s="23">
         <v>45258</v>
       </c>
-      <c r="G77" s="51">
+      <c r="G77" s="38">
         <v>0.62013888888888891</v>
       </c>
       <c r="H77" s="24" t="s">
@@ -7638,7 +7637,7 @@
       <c r="F78" s="23">
         <v>45258</v>
       </c>
-      <c r="G78" s="51">
+      <c r="G78" s="38">
         <v>0.62013888888888891</v>
       </c>
       <c r="H78" s="24" t="s">
@@ -7682,7 +7681,7 @@
       <c r="F79" s="23">
         <v>45258</v>
       </c>
-      <c r="G79" s="51">
+      <c r="G79" s="38">
         <v>0.62013888888888891</v>
       </c>
       <c r="H79" s="24" t="s">
@@ -7726,7 +7725,7 @@
       <c r="F80" s="23">
         <v>45258</v>
       </c>
-      <c r="G80" s="51">
+      <c r="G80" s="38">
         <v>0.62013888888888891</v>
       </c>
       <c r="H80" s="24" t="s">
@@ -7751,7 +7750,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="81" spans="1:20" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:20" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A81" s="20">
         <v>151</v>
       </c>
@@ -7789,7 +7788,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:20" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A82" s="20">
         <v>152</v>
       </c>
@@ -7827,7 +7826,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:20" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A83" s="20">
         <v>153</v>
       </c>
@@ -7865,7 +7864,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="84" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:20" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A84" s="20">
         <v>154</v>
       </c>
@@ -7903,7 +7902,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="85" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:20" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A85" s="20">
         <v>155</v>
       </c>
@@ -7941,7 +7940,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="86" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:20" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A86" s="20">
         <v>156</v>
       </c>
@@ -7979,7 +7978,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="87" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:20" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A87" s="20">
         <v>157</v>
       </c>
@@ -8017,7 +8016,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="88" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:20" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A88" s="20">
         <v>158</v>
       </c>
@@ -8055,7 +8054,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="89" spans="1:20" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:20" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A89" s="20">
         <v>159</v>
       </c>
@@ -8093,7 +8092,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="90" spans="1:20" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:20" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A90" s="20">
         <v>160</v>
       </c>
@@ -8131,7 +8130,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="91" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:20" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A91" s="20">
         <v>161</v>
       </c>
@@ -8169,7 +8168,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="92" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:20" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A92" s="20">
         <v>162</v>
       </c>
@@ -8207,7 +8206,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="93" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:20" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A93" s="20">
         <v>163</v>
       </c>
@@ -8245,7 +8244,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="94" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:20" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A94" s="20">
         <v>164</v>
       </c>
@@ -8283,7 +8282,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="95" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:20" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A95" s="20">
         <v>165</v>
       </c>
@@ -8321,7 +8320,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="96" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:20" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A96" s="20">
         <v>166</v>
       </c>
@@ -8359,7 +8358,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="97" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:20" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A97" s="20">
         <v>167</v>
       </c>
@@ -8397,7 +8396,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="98" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:20" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A98" s="20">
         <v>168</v>
       </c>
@@ -8435,7 +8434,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="99" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:20" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A99" s="20">
         <v>169</v>
       </c>
@@ -8473,7 +8472,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="100" spans="1:20" ht="144" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:20" ht="144" x14ac:dyDescent="0.3">
       <c r="A100" s="20">
         <v>191</v>
       </c>
@@ -8511,7 +8510,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="101" spans="1:20" ht="144" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:20" ht="144" x14ac:dyDescent="0.3">
       <c r="A101" s="20">
         <v>368</v>
       </c>
@@ -8530,7 +8529,7 @@
       <c r="F101" s="23">
         <v>45258</v>
       </c>
-      <c r="G101" s="51">
+      <c r="G101" s="38">
         <v>0.61805555555555558</v>
       </c>
       <c r="H101" s="24" t="s">
@@ -8555,7 +8554,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="102" spans="1:20" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:20" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A102" s="20">
         <v>369</v>
       </c>
@@ -8574,7 +8573,7 @@
       <c r="F102" s="23">
         <v>45258</v>
       </c>
-      <c r="G102" s="51">
+      <c r="G102" s="38">
         <v>0.59791666666666665</v>
       </c>
       <c r="H102" s="24" t="s">
@@ -8599,7 +8598,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="103" spans="1:20" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:20" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A103" s="20">
         <v>370</v>
       </c>
@@ -8618,7 +8617,7 @@
       <c r="F103" s="23">
         <v>45258</v>
       </c>
-      <c r="G103" s="51">
+      <c r="G103" s="38">
         <v>0.61597222222222225</v>
       </c>
       <c r="H103" s="24" t="s">
@@ -8662,7 +8661,7 @@
       <c r="F104" s="23">
         <v>45258</v>
       </c>
-      <c r="G104" s="51">
+      <c r="G104" s="38">
         <v>0.62013888888888891</v>
       </c>
       <c r="H104" s="24" t="s">
@@ -8687,7 +8686,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="105" spans="1:20" ht="144" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:20" ht="144" x14ac:dyDescent="0.3">
       <c r="A105" s="20">
         <v>376</v>
       </c>
@@ -8747,7 +8746,7 @@
       <c r="G107" s="12"/>
       <c r="H107" s="12"/>
       <c r="I107" s="12"/>
-      <c r="J107" s="37"/>
+      <c r="J107" s="36"/>
       <c r="K107" s="13"/>
       <c r="L107" s="13"/>
       <c r="M107" s="13"/>
@@ -13377,38 +13376,7 @@
       <c r="T722" s="13"/>
     </row>
   </sheetData>
-  <autoFilter ref="A9:T105" xr:uid="{00000000-0009-0000-0000-000002000000}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="RSA"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="3">
-      <filters>
-        <filter val="VALIDAZIONE_CDA2_LAB_CT0"/>
-        <filter val="VALIDAZIONE_CDA2_LAB_CT1"/>
-        <filter val="VALIDAZIONE_CDA2_LAB_CT2"/>
-        <filter val="VALIDAZIONE_CDA2_LAB_CT3"/>
-        <filter val="VALIDAZIONE_CDA2_LAB_CT4"/>
-        <filter val="VALIDAZIONE_CDA2_LAB_CT5"/>
-        <filter val="VALIDAZIONE_CDA2_LDO_CT0"/>
-        <filter val="VALIDAZIONE_CDA2_LDO_CT1"/>
-        <filter val="VALIDAZIONE_CDA2_LDO_CT2"/>
-        <filter val="VALIDAZIONE_CDA2_LDO_CT3"/>
-        <filter val="VALIDAZIONE_CDA2_LDO_CT4"/>
-        <filter val="VALIDAZIONE_CDA2_RAD_CT0"/>
-        <filter val="VALIDAZIONE_CDA2_RAD_CT1"/>
-        <filter val="VALIDAZIONE_CDA2_RAD_CT2"/>
-        <filter val="VALIDAZIONE_CDA2_RAD_CT3"/>
-        <filter val="VALIDAZIONE_CDA2_RAD_CT4"/>
-        <filter val="VALIDAZIONE_CDA2_RSA_CT0"/>
-        <filter val="VALIDAZIONE_CDA2_RSA_CT1"/>
-        <filter val="VALIDAZIONE_CDA2_RSA_CT2"/>
-        <filter val="VALIDAZIONE_CDA2_RSA_CT3"/>
-        <filter val="VALIDAZIONE_CDA2_RSA_CT4"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A9:T105" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <mergeCells count="7">
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A2:B2"/>

--- a/GATEWAY/A1#111HTINFORMATICAXX/HTINFORMATICA SRL/HTSANg/3.1.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111HTINFORMATICAXX/HTINFORMATICA SRL/HTSANg/3.1.0/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\_FSE2.0\VALIDAZIONE\A1#111HTINFORMATICAXX\HTINFORMATICA SRL\HTSANg\3.1.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182AE2CE-C483-4C30-9279-31B349C15BB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E190804-35AD-4A68-9313-F1E866972B7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25416" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1592,9 +1592,6 @@
     <t>subject_application_vendor: HTINFORMATICA SRL</t>
   </si>
   <si>
-    <t>subject_application_version: 3.0.0</t>
-  </si>
-  <si>
     <t>Non gestiamo questa tipologia di esame</t>
   </si>
   <si>
@@ -1722,6 +1719,9 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.190.4.4.893f66a27ede67215e16e85d277fb933bb8887170f7cfcd3837e287680fb50d4.0edb38d9ba^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>subject_application_version: 3.1.0</t>
   </si>
 </sst>
 </file>
@@ -2071,7 +2071,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2203,9 +2203,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4673,7 +4670,7 @@
       <pane xSplit="1" ySplit="9" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="L31" sqref="L31:P34"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4786,7 +4783,7 @@
       <c r="A5" s="49"/>
       <c r="B5" s="50"/>
       <c r="C5" s="51" t="s">
-        <v>307</v>
+        <v>350</v>
       </c>
       <c r="D5" s="43"/>
       <c r="F5" s="12"/>
@@ -4947,10 +4944,10 @@
         <v>0.61805555555555558</v>
       </c>
       <c r="H10" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="I10" s="24" t="s">
         <v>331</v>
-      </c>
-      <c r="I10" s="24" t="s">
-        <v>332</v>
       </c>
       <c r="J10" s="25" t="s">
         <v>99</v>
@@ -4991,10 +4988,10 @@
         <v>0.61805555555555558</v>
       </c>
       <c r="H11" s="24" t="s">
+        <v>332</v>
+      </c>
+      <c r="I11" s="24" t="s">
         <v>333</v>
-      </c>
-      <c r="I11" s="24" t="s">
-        <v>334</v>
       </c>
       <c r="J11" s="25" t="s">
         <v>99</v>
@@ -5035,10 +5032,10 @@
         <v>0.61875000000000002</v>
       </c>
       <c r="H12" s="24" t="s">
+        <v>334</v>
+      </c>
+      <c r="I12" s="24" t="s">
         <v>335</v>
-      </c>
-      <c r="I12" s="24" t="s">
-        <v>336</v>
       </c>
       <c r="J12" s="25" t="s">
         <v>99</v>
@@ -5079,10 +5076,10 @@
         <v>0.61875000000000002</v>
       </c>
       <c r="H13" s="24" t="s">
+        <v>336</v>
+      </c>
+      <c r="I13" s="24" t="s">
         <v>337</v>
-      </c>
-      <c r="I13" s="24" t="s">
-        <v>338</v>
       </c>
       <c r="J13" s="25" t="s">
         <v>99</v>
@@ -5123,10 +5120,10 @@
         <v>0.61875000000000002</v>
       </c>
       <c r="H14" s="24" t="s">
+        <v>338</v>
+      </c>
+      <c r="I14" s="24" t="s">
         <v>339</v>
-      </c>
-      <c r="I14" s="24" t="s">
-        <v>340</v>
       </c>
       <c r="J14" s="25" t="s">
         <v>99</v>
@@ -5167,10 +5164,10 @@
         <v>0.59791666666666665</v>
       </c>
       <c r="H15" s="24" t="s">
+        <v>310</v>
+      </c>
+      <c r="I15" s="24" t="s">
         <v>311</v>
-      </c>
-      <c r="I15" s="24" t="s">
-        <v>312</v>
       </c>
       <c r="J15" s="25" t="s">
         <v>99</v>
@@ -5211,10 +5208,10 @@
         <v>0.59791666666666665</v>
       </c>
       <c r="H16" s="39" t="s">
+        <v>312</v>
+      </c>
+      <c r="I16" s="24" t="s">
         <v>313</v>
-      </c>
-      <c r="I16" s="24" t="s">
-        <v>314</v>
       </c>
       <c r="J16" s="25" t="s">
         <v>99</v>
@@ -5255,10 +5252,10 @@
         <v>0.61388888888888882</v>
       </c>
       <c r="H17" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="I17" s="24" t="s">
         <v>315</v>
-      </c>
-      <c r="I17" s="24" t="s">
-        <v>316</v>
       </c>
       <c r="J17" s="25" t="s">
         <v>99</v>
@@ -5299,10 +5296,10 @@
         <v>0.61388888888888882</v>
       </c>
       <c r="H18" s="24" t="s">
+        <v>316</v>
+      </c>
+      <c r="I18" s="24" t="s">
         <v>317</v>
-      </c>
-      <c r="I18" s="24" t="s">
-        <v>318</v>
       </c>
       <c r="J18" s="25" t="s">
         <v>99</v>
@@ -5343,10 +5340,10 @@
         <v>0.61597222222222225</v>
       </c>
       <c r="H19" s="24" t="s">
+        <v>320</v>
+      </c>
+      <c r="I19" s="24" t="s">
         <v>321</v>
-      </c>
-      <c r="I19" s="24" t="s">
-        <v>322</v>
       </c>
       <c r="J19" s="25" t="s">
         <v>99</v>
@@ -5387,10 +5384,10 @@
         <v>0.61597222222222225</v>
       </c>
       <c r="H20" s="24" t="s">
+        <v>322</v>
+      </c>
+      <c r="I20" s="24" t="s">
         <v>323</v>
-      </c>
-      <c r="I20" s="24" t="s">
-        <v>324</v>
       </c>
       <c r="J20" s="25" t="s">
         <v>99</v>
@@ -5431,10 +5428,10 @@
         <v>0.61597222222222225</v>
       </c>
       <c r="H21" s="24" t="s">
+        <v>324</v>
+      </c>
+      <c r="I21" s="24" t="s">
         <v>325</v>
-      </c>
-      <c r="I21" s="24" t="s">
-        <v>326</v>
       </c>
       <c r="J21" s="25" t="s">
         <v>99</v>
@@ -5475,10 +5472,10 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H22" s="24" t="s">
+        <v>326</v>
+      </c>
+      <c r="I22" s="24" t="s">
         <v>327</v>
-      </c>
-      <c r="I22" s="24" t="s">
-        <v>328</v>
       </c>
       <c r="J22" s="25" t="s">
         <v>99</v>
@@ -5668,10 +5665,10 @@
       <c r="G27" s="24"/>
       <c r="H27" s="24"/>
       <c r="I27" s="24"/>
-      <c r="J27" s="52" t="s">
+      <c r="J27" s="25" t="s">
         <v>298</v>
       </c>
-      <c r="K27" s="52" t="s">
+      <c r="K27" s="25" t="s">
         <v>302</v>
       </c>
       <c r="L27" s="25"/>
@@ -5708,10 +5705,10 @@
       <c r="G28" s="24"/>
       <c r="H28" s="24"/>
       <c r="I28" s="24"/>
-      <c r="J28" s="52" t="s">
+      <c r="J28" s="25" t="s">
         <v>298</v>
       </c>
-      <c r="K28" s="52" t="s">
+      <c r="K28" s="25" t="s">
         <v>299</v>
       </c>
       <c r="L28" s="25"/>
@@ -5746,10 +5743,10 @@
       <c r="G29" s="24"/>
       <c r="H29" s="24"/>
       <c r="I29" s="24"/>
-      <c r="J29" s="52" t="s">
+      <c r="J29" s="25" t="s">
         <v>298</v>
       </c>
-      <c r="K29" s="52" t="s">
+      <c r="K29" s="25" t="s">
         <v>299</v>
       </c>
       <c r="L29" s="25"/>
@@ -5784,10 +5781,10 @@
       <c r="G30" s="24"/>
       <c r="H30" s="24"/>
       <c r="I30" s="24"/>
-      <c r="J30" s="52" t="s">
+      <c r="J30" s="25" t="s">
         <v>298</v>
       </c>
-      <c r="K30" s="52" t="s">
+      <c r="K30" s="25" t="s">
         <v>299</v>
       </c>
       <c r="L30" s="25"/>
@@ -5824,19 +5821,19 @@
       <c r="I31" s="24"/>
       <c r="J31" s="25"/>
       <c r="K31" s="25"/>
-      <c r="L31" s="52" t="s">
+      <c r="L31" s="25" t="s">
         <v>298</v>
       </c>
-      <c r="M31" s="52" t="s">
+      <c r="M31" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="N31" s="52" t="s">
+      <c r="N31" s="25" t="s">
         <v>303</v>
       </c>
-      <c r="O31" s="52" t="s">
+      <c r="O31" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="P31" s="52" t="s">
+      <c r="P31" s="25" t="s">
         <v>304</v>
       </c>
       <c r="Q31" s="25"/>
@@ -5868,19 +5865,19 @@
       <c r="I32" s="24"/>
       <c r="J32" s="25"/>
       <c r="K32" s="25"/>
-      <c r="L32" s="52" t="s">
+      <c r="L32" s="25" t="s">
         <v>298</v>
       </c>
-      <c r="M32" s="52" t="s">
+      <c r="M32" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="N32" s="52" t="s">
+      <c r="N32" s="25" t="s">
         <v>303</v>
       </c>
-      <c r="O32" s="52" t="s">
+      <c r="O32" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="P32" s="52" t="s">
+      <c r="P32" s="25" t="s">
         <v>304</v>
       </c>
       <c r="Q32" s="25"/>
@@ -5912,19 +5909,19 @@
       <c r="I33" s="24"/>
       <c r="J33" s="25"/>
       <c r="K33" s="25"/>
-      <c r="L33" s="52" t="s">
+      <c r="L33" s="25" t="s">
         <v>298</v>
       </c>
-      <c r="M33" s="52" t="s">
+      <c r="M33" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="N33" s="52" t="s">
+      <c r="N33" s="25" t="s">
         <v>303</v>
       </c>
-      <c r="O33" s="52" t="s">
+      <c r="O33" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="P33" s="52" t="s">
+      <c r="P33" s="25" t="s">
         <v>304</v>
       </c>
       <c r="Q33" s="25"/>
@@ -5956,19 +5953,19 @@
       <c r="I34" s="24"/>
       <c r="J34" s="25"/>
       <c r="K34" s="25"/>
-      <c r="L34" s="52" t="s">
+      <c r="L34" s="25" t="s">
         <v>298</v>
       </c>
-      <c r="M34" s="52" t="s">
+      <c r="M34" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="N34" s="52" t="s">
+      <c r="N34" s="25" t="s">
         <v>303</v>
       </c>
-      <c r="O34" s="52" t="s">
+      <c r="O34" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="P34" s="52" t="s">
+      <c r="P34" s="25" t="s">
         <v>304</v>
       </c>
       <c r="Q34" s="25"/>
@@ -7597,10 +7594,10 @@
         <v>0.62013888888888891</v>
       </c>
       <c r="H77" s="24" t="s">
+        <v>342</v>
+      </c>
+      <c r="I77" s="24" t="s">
         <v>343</v>
-      </c>
-      <c r="I77" s="24" t="s">
-        <v>344</v>
       </c>
       <c r="J77" s="25" t="s">
         <v>99</v>
@@ -7641,10 +7638,10 @@
         <v>0.62013888888888891</v>
       </c>
       <c r="H78" s="24" t="s">
+        <v>344</v>
+      </c>
+      <c r="I78" s="24" t="s">
         <v>345</v>
-      </c>
-      <c r="I78" s="24" t="s">
-        <v>346</v>
       </c>
       <c r="J78" s="25" t="s">
         <v>99</v>
@@ -7685,10 +7682,10 @@
         <v>0.62013888888888891</v>
       </c>
       <c r="H79" s="24" t="s">
+        <v>346</v>
+      </c>
+      <c r="I79" s="24" t="s">
         <v>347</v>
-      </c>
-      <c r="I79" s="24" t="s">
-        <v>348</v>
       </c>
       <c r="J79" s="25" t="s">
         <v>99</v>
@@ -7729,10 +7726,10 @@
         <v>0.62013888888888891</v>
       </c>
       <c r="H80" s="24" t="s">
+        <v>348</v>
+      </c>
+      <c r="I80" s="24" t="s">
         <v>349</v>
-      </c>
-      <c r="I80" s="24" t="s">
-        <v>350</v>
       </c>
       <c r="J80" s="25" t="s">
         <v>99</v>
@@ -8496,7 +8493,7 @@
         <v>298</v>
       </c>
       <c r="K100" s="25" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="L100" s="25"/>
       <c r="M100" s="25"/>
@@ -8533,10 +8530,10 @@
         <v>0.61805555555555558</v>
       </c>
       <c r="H101" s="24" t="s">
+        <v>328</v>
+      </c>
+      <c r="I101" s="24" t="s">
         <v>329</v>
-      </c>
-      <c r="I101" s="24" t="s">
-        <v>330</v>
       </c>
       <c r="J101" s="25" t="s">
         <v>99</v>
@@ -8577,10 +8574,10 @@
         <v>0.59791666666666665</v>
       </c>
       <c r="H102" s="24" t="s">
+        <v>308</v>
+      </c>
+      <c r="I102" s="24" t="s">
         <v>309</v>
-      </c>
-      <c r="I102" s="24" t="s">
-        <v>310</v>
       </c>
       <c r="J102" s="25" t="s">
         <v>99</v>
@@ -8621,10 +8618,10 @@
         <v>0.61597222222222225</v>
       </c>
       <c r="H103" s="24" t="s">
+        <v>318</v>
+      </c>
+      <c r="I103" s="24" t="s">
         <v>319</v>
-      </c>
-      <c r="I103" s="24" t="s">
-        <v>320</v>
       </c>
       <c r="J103" s="25" t="s">
         <v>99</v>
@@ -8665,10 +8662,10 @@
         <v>0.62013888888888891</v>
       </c>
       <c r="H104" s="24" t="s">
+        <v>340</v>
+      </c>
+      <c r="I104" s="24" t="s">
         <v>341</v>
-      </c>
-      <c r="I104" s="24" t="s">
-        <v>342</v>
       </c>
       <c r="J104" s="25" t="s">
         <v>99</v>
@@ -8710,7 +8707,7 @@
         <v>298</v>
       </c>
       <c r="K105" s="25" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="L105" s="25"/>
       <c r="M105" s="25"/>
